--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
@@ -58,19 +61,31 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
   <si>
     <t>perfect</t>
@@ -79,148 +94,151 @@
     <t>cakes</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>husband</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>sturdy</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>ze</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
     <t>make</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>really</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>buy</t>
   </si>
   <si>
     <t>one</t>
@@ -590,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,7 +619,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.310077519379845</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +727,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.8985507246376812</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +753,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8984375</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +779,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.8828125</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +805,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8359133126934984</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>540</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>540</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -805,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>106</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -813,13 +831,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7922077922077922</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="L8">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -831,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -839,13 +857,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7333333333333333</v>
+        <v>0.8343653250773994</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>539</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>539</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -857,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -865,13 +883,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -883,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -891,13 +909,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.6926406926406926</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L11">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M11">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -909,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -917,13 +935,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6644067796610169</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L12">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -935,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -943,13 +961,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.65625</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -961,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -969,13 +987,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6458333333333334</v>
+        <v>0.6514285714285715</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -987,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -995,13 +1013,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6380417335473515</v>
+        <v>0.6500802568218299</v>
       </c>
       <c r="L15">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="M15">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1013,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1021,13 +1039,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6338028169014085</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1047,13 +1065,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6326530612244898</v>
+        <v>0.6406779661016949</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1065,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1073,13 +1091,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.631578947368421</v>
+        <v>0.625</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1091,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1099,13 +1117,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.6301369863013698</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1125,13 +1143,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.625</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1143,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1151,13 +1169,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.6176470588235294</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1169,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1177,13 +1195,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.6057142857142858</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L22">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1195,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1203,13 +1221,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5857142857142857</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1221,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1229,13 +1247,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5769230769230769</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1247,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1255,13 +1273,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5692307692307692</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1273,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1281,13 +1299,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5555555555555556</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1307,13 +1325,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.5470085470085471</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L27">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1325,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1333,13 +1351,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.5131578947368421</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1351,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1359,13 +1377,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.5060240963855421</v>
+        <v>0.5209580838323353</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1377,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1385,13 +1403,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.4918032786885246</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1403,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1411,13 +1429,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.4850299401197605</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L31">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1429,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1437,13 +1455,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.48</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L32">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="M32">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1455,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1463,13 +1481,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.4586466165413534</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L33">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1481,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1489,13 +1507,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.427710843373494</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L34">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1507,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>95</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1515,13 +1533,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.4078947368421053</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1533,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1541,13 +1559,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.3950617283950617</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1559,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>49</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1567,13 +1585,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.3783783783783784</v>
+        <v>0.41</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1585,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1593,13 +1611,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.3684210526315789</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L38">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M38">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1611,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1619,13 +1637,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.3553921568627451</v>
+        <v>0.3455882352941176</v>
       </c>
       <c r="L39">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M39">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1637,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1645,13 +1663,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.3501945525291829</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="L40">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M40">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1663,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1671,13 +1689,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.3424657534246575</v>
+        <v>0.3410958904109589</v>
       </c>
       <c r="L41">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M41">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1689,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1697,13 +1715,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.3055555555555556</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L42">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M42">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1715,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1723,13 +1741,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.2822966507177033</v>
+        <v>0.3240740740740741</v>
       </c>
       <c r="L43">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1741,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>150</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1749,13 +1767,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.2805755395683453</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L44">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1767,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1775,13 +1793,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.2572658772874058</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L45">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="M45">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1793,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>690</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1801,13 +1819,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.2450331125827815</v>
+        <v>0.2733812949640288</v>
       </c>
       <c r="L46">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M46">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1819,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1827,13 +1845,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.2351097178683386</v>
+        <v>0.2649006622516556</v>
       </c>
       <c r="L47">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="M47">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1845,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>244</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1853,13 +1871,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.2132450331125828</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L48">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1871,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>594</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1879,25 +1897,25 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.1933418693982074</v>
+        <v>0.2551130247578041</v>
       </c>
       <c r="L49">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="M49">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="N49">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>630</v>
+        <v>692</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1905,25 +1923,25 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.1783783783783784</v>
+        <v>0.213166144200627</v>
       </c>
       <c r="L50">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M50">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N50">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>304</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1931,13 +1949,13 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.1518518518518518</v>
+        <v>0.2052980132450331</v>
       </c>
       <c r="L51">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="M51">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1949,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>229</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1957,13 +1975,13 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.1484184914841849</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L52">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M52">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1975,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>350</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1983,13 +2001,13 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.1428571428571428</v>
+        <v>0.1841432225063939</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="M53">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2001,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>174</v>
+        <v>638</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2009,13 +2027,13 @@
         <v>61</v>
       </c>
       <c r="K54">
-        <v>0.134453781512605</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="L54">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M54">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2027,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>206</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2035,25 +2053,25 @@
         <v>62</v>
       </c>
       <c r="K55">
-        <v>0.127147766323024</v>
+        <v>0.1544715447154472</v>
       </c>
       <c r="L55">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M55">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>254</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2061,13 +2079,13 @@
         <v>63</v>
       </c>
       <c r="K56">
-        <v>0.1254612546125461</v>
+        <v>0.1484184914841849</v>
       </c>
       <c r="L56">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="M56">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2079,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>237</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2087,13 +2105,13 @@
         <v>64</v>
       </c>
       <c r="K57">
-        <v>0.1090909090909091</v>
+        <v>0.1476014760147601</v>
       </c>
       <c r="L57">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M57">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2105,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>392</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2113,25 +2131,25 @@
         <v>65</v>
       </c>
       <c r="K58">
-        <v>0.1073985680190931</v>
+        <v>0.1435643564356436</v>
       </c>
       <c r="L58">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M58">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>374</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2139,25 +2157,25 @@
         <v>66</v>
       </c>
       <c r="K59">
-        <v>0.09899569583931134</v>
+        <v>0.1409090909090909</v>
       </c>
       <c r="L59">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M59">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="N59">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>628</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2165,13 +2183,13 @@
         <v>67</v>
       </c>
       <c r="K60">
-        <v>0.09868421052631579</v>
+        <v>0.140893470790378</v>
       </c>
       <c r="L60">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M60">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2183,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>411</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2191,25 +2209,25 @@
         <v>68</v>
       </c>
       <c r="K61">
-        <v>0.07633587786259542</v>
+        <v>0.138655462184874</v>
       </c>
       <c r="L61">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M61">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N61">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>363</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2217,25 +2235,25 @@
         <v>69</v>
       </c>
       <c r="K62">
-        <v>0.07376283846872082</v>
+        <v>0.1267942583732057</v>
       </c>
       <c r="L62">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="M62">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="N62">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O62">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>992</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2243,13 +2261,13 @@
         <v>70</v>
       </c>
       <c r="K63">
-        <v>0.06088560885608856</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="L63">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="M63">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2261,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>509</v>
+        <v>402</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2269,25 +2287,181 @@
         <v>71</v>
       </c>
       <c r="K64">
-        <v>0.04852686308492201</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="L64">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M64">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K65">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L65">
+        <v>30</v>
+      </c>
+      <c r="M65">
+        <v>30</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K66">
+        <v>0.08469945355191257</v>
+      </c>
+      <c r="L66">
+        <v>31</v>
+      </c>
+      <c r="M66">
+        <v>31</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K67">
+        <v>0.07879656160458452</v>
+      </c>
+      <c r="L67">
+        <v>55</v>
+      </c>
+      <c r="M67">
+        <v>55</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K68">
+        <v>0.07670720299345182</v>
+      </c>
+      <c r="L68">
+        <v>82</v>
+      </c>
+      <c r="M68">
+        <v>85</v>
+      </c>
+      <c r="N68">
+        <v>0.96</v>
+      </c>
+      <c r="O68">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K69">
+        <v>0.07592592592592592</v>
+      </c>
+      <c r="L69">
+        <v>41</v>
+      </c>
+      <c r="M69">
+        <v>43</v>
+      </c>
+      <c r="N69">
         <v>0.95</v>
       </c>
-      <c r="O64">
+      <c r="O69">
         <v>0.05000000000000004</v>
       </c>
-      <c r="P64" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <v>1098</v>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K70">
+        <v>0.04242424242424243</v>
+      </c>
+      <c r="L70">
+        <v>49</v>
+      </c>
+      <c r="M70">
+        <v>51</v>
+      </c>
+      <c r="N70">
+        <v>0.96</v>
+      </c>
+      <c r="O70">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
